--- a/test-main/src/main/resources/rule6/验证数据.xlsx
+++ b/test-main/src/main/resources/rule6/验证数据.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -40,10 +40,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>triggered</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>notTriggered</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -80,13 +76,17 @@
   </si>
   <si>
     <t>successed</t>
+  </si>
+  <si>
+    <t>POC0006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +115,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,7 +151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -150,6 +163,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,7 +471,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -488,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -496,54 +512,54 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3">
         <v>1000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="3">
         <v>1000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/test-main/src/main/resources/rule6/验证数据.xlsx
+++ b/test-main/src/main/resources/rule6/验证数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>merchantUserId</t>
   </si>
@@ -73,13 +73,19 @@
   </si>
   <si>
     <t>dataDisposeSehedule</t>
-  </si>
-  <si>
-    <t>successed</t>
   </si>
   <si>
     <t>POC0006</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCCESSED</t>
+  </si>
+  <si>
+    <t>bizCode</t>
+  </si>
+  <si>
+    <t>PAY.CZ</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -484,7 +490,7 @@
     <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,8 +515,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -529,14 +538,17 @@
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
       </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -555,11 +567,14 @@
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
+      <c r="I3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/test-main/src/main/resources/rule6/验证数据.xlsx
+++ b/test-main/src/main/resources/rule6/验证数据.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/test-main/src/main/resources/rule6/验证数据.xlsx
+++ b/test-main/src/main/resources/rule6/验证数据.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,22 +527,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
@@ -556,22 +556,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
+      <c r="H3" t="s">
+        <v>7</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
